--- a/Sravans Java Roadmap.xlsx
+++ b/Sravans Java Roadmap.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="2" r:id="rId1"/>
-    <sheet name="AI Sheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="AI Sheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>Java Developer Roadmap</t>
   </si>
@@ -367,6 +368,45 @@
   </si>
   <si>
     <t>WebDevelopment</t>
+  </si>
+  <si>
+    <t>Class Loader Subsystem</t>
+  </si>
+  <si>
+    <t>Execution Engine</t>
+  </si>
+  <si>
+    <t>Garbage Collection</t>
+  </si>
+  <si>
+    <t>JVM Options &amp; Flags</t>
+  </si>
+  <si>
+    <t>Metaspace</t>
+  </si>
+  <si>
+    <t>JVM Monitoring &amp; Profiling</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>Default Methods, Optional Class</t>
+  </si>
+  <si>
+    <t>Static Methods in Interfaces, Method References</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>Factory Method</t>
+  </si>
+  <si>
+    <t>Abstract Method</t>
   </si>
 </sst>
 </file>
@@ -505,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -513,23 +553,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,11 +581,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,53 +877,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:G67"/>
+  <dimension ref="D1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -882,40 +932,40 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -924,15 +974,15 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
@@ -940,7 +990,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
@@ -948,7 +998,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="5"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -956,8 +1006,8 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -966,48 +1016,48 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="5"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1016,15 +1066,15 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="5"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1084,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="5"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1044,16 +1094,16 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="5"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1062,16 +1112,16 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="5"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1080,48 +1130,48 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="5"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1130,47 +1180,47 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" s="5"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1228,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D40" s="5"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1186,7 +1236,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D41" s="5"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1244,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="5"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1252,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="5"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
@@ -1210,77 +1260,77 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="5"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="5"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D46" s="5"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D47" s="5"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D48" s="5"/>
-      <c r="E48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D49" s="5"/>
-      <c r="E49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="5"/>
-      <c r="E50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1288,7 +1338,7 @@
     <row r="53" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D53" s="6"/>
       <c r="E53" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1296,7 +1346,7 @@
     <row r="54" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D54" s="6"/>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1304,7 +1354,7 @@
     <row r="55" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D55" s="6"/>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1312,7 +1362,7 @@
     <row r="56" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D56" s="6"/>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1320,7 +1370,7 @@
     <row r="57" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D57" s="6"/>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1328,7 +1378,7 @@
     <row r="58" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D58" s="6"/>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1336,7 +1386,7 @@
     <row r="59" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D59" s="6"/>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1344,15 +1394,17 @@
     <row r="60" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D60" s="6"/>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1360,7 +1412,7 @@
     <row r="62" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D62" s="6"/>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1368,53 +1420,138 @@
     <row r="63" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
-      <c r="E64" s="2" t="s">
-        <v>64</v>
+      <c r="E64" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D65" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>77</v>
+      <c r="D65" s="6"/>
+      <c r="E65" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D66" s="11"/>
+      <c r="D66" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D67" s="12"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68" s="6"/>
+      <c r="E68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="6"/>
+      <c r="E69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" s="6"/>
+      <c r="E70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="6"/>
+      <c r="E71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="6"/>
+      <c r="E72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74" s="6"/>
+      <c r="E74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75" s="6"/>
+      <c r="E75" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="6"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="6"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D52:D64"/>
+  <mergeCells count="17">
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E75:E77"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="E4:E8"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D4:D51"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D4:D49"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E20:E21"/>
@@ -1422,18 +1559,552 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E32"/>
     <mergeCell ref="E33:E38"/>
-    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D50:D60"/>
+    <mergeCell ref="D66:D72"/>
+  </mergeCells>
+  <pageMargins left="0" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A51"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D11" sqref="D2:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,300 +2114,295 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D21" s="13"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D30" s="13"/>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D31" s="13"/>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D32" s="13"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D35" s="13"/>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D37" s="13"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D39" s="13"/>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D41" s="13"/>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="4:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="5" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D39"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D10"/>
@@ -1744,6 +2410,11 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
